--- a/Graph/Dataset/Build/Users/T2_Users.xlsx
+++ b/Graph/Dataset/Build/Users/T2_Users.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Riccardo\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5DD5C48-47DE-46C2-80C2-F19A3AFA579E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF1DEEBE-ED2C-4C06-8F7D-540A86F6EABC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="41496" windowHeight="16848" xr2:uid="{67ADB336-A903-4188-8AD7-DEA2FA5A44A8}"/>
+    <workbookView xWindow="4536" yWindow="1236" windowWidth="23040" windowHeight="13872" xr2:uid="{67ADB336-A903-4188-8AD7-DEA2FA5A44A8}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -227,147 +227,6 @@
     <t>timJ</t>
   </si>
   <si>
-    <t>adminPassword</t>
-  </si>
-  <si>
-    <t>adriPassword</t>
-  </si>
-  <si>
-    <t>adrianPassword</t>
-  </si>
-  <si>
-    <t>agathaPassword</t>
-  </si>
-  <si>
-    <t>amyPassword</t>
-  </si>
-  <si>
-    <t>anto83Password</t>
-  </si>
-  <si>
-    <t>bettyPassword</t>
-  </si>
-  <si>
-    <t>bobPassword</t>
-  </si>
-  <si>
-    <t>bradPassword</t>
-  </si>
-  <si>
-    <t>christopherPassword</t>
-  </si>
-  <si>
-    <t>DaniPassword</t>
-  </si>
-  <si>
-    <t>david91Password</t>
-  </si>
-  <si>
-    <t>DiaPassword</t>
-  </si>
-  <si>
-    <t>donnyPassword</t>
-  </si>
-  <si>
-    <t>ethPassword</t>
-  </si>
-  <si>
-    <t>GabrielPassword</t>
-  </si>
-  <si>
-    <t>imannePassword</t>
-  </si>
-  <si>
-    <t>jacobPassword</t>
-  </si>
-  <si>
-    <t>jamesPassword</t>
-  </si>
-  <si>
-    <t>james96Password</t>
-  </si>
-  <si>
-    <t>johnPassword</t>
-  </si>
-  <si>
-    <t>john72Password</t>
-  </si>
-  <si>
-    <t>lauraPassword</t>
-  </si>
-  <si>
-    <t>lisaPassword</t>
-  </si>
-  <si>
-    <t>lolaPassword</t>
-  </si>
-  <si>
-    <t>lorryPassword</t>
-  </si>
-  <si>
-    <t>madelinePassword</t>
-  </si>
-  <si>
-    <t>magicBobPassword</t>
-  </si>
-  <si>
-    <t>mariaPassword</t>
-  </si>
-  <si>
-    <t>MariannePassword</t>
-  </si>
-  <si>
-    <t>mattPassword</t>
-  </si>
-  <si>
-    <t>mattyPassword</t>
-  </si>
-  <si>
-    <t>michaelPassword</t>
-  </si>
-  <si>
-    <t>PaulPaulPassword</t>
-  </si>
-  <si>
-    <t>PhilipPassword</t>
-  </si>
-  <si>
-    <t>ralph68Password</t>
-  </si>
-  <si>
-    <t>randiPassword</t>
-  </si>
-  <si>
-    <t>richardPassword</t>
-  </si>
-  <si>
-    <t>robPassword</t>
-  </si>
-  <si>
-    <t>royPassword</t>
-  </si>
-  <si>
-    <t>ruthPassword</t>
-  </si>
-  <si>
-    <t>SarahPassword</t>
-  </si>
-  <si>
-    <t>seliPassword</t>
-  </si>
-  <si>
-    <t>soJennyPassword</t>
-  </si>
-  <si>
-    <t>susyPassword</t>
-  </si>
-  <si>
-    <t>timJPassword</t>
-  </si>
-  <si>
-    <t>VincePassword</t>
-  </si>
-  <si>
     <t>user</t>
   </si>
   <si>
@@ -633,6 +492,147 @@
   </si>
   <si>
     <t>followedCount:long</t>
+  </si>
+  <si>
+    <t>0738a3e2111e114a665d35b24be5f42d1f98700f161633f63fbaa15b4b3103ab</t>
+  </si>
+  <si>
+    <t>27cd244ad69613a48dc96828ecfb6e95e85f76b16f41883a0c0c40bea763555b</t>
+  </si>
+  <si>
+    <t>f6fb9326b977f52b47ac0c3ea7d93e6a750ea219053ac0728532b72fae643efe</t>
+  </si>
+  <si>
+    <t>a19248e38b1b4c4575882fbc0a18a717868be3bced7ec6bdff5a4bdd6c92fec1</t>
+  </si>
+  <si>
+    <t>697e7415269d5ade6587acecd2b343cd555ec838544be6bc9d887dd4c6cd01f6</t>
+  </si>
+  <si>
+    <t>64abd35e1f4e1059d4a78663536f8341380606d9f56920eced78e2dd5fb3ef8a</t>
+  </si>
+  <si>
+    <t>aef9166af62a57b9ad98d1f592a3e3ad53e54015f8c9845497f60df1eb25f0c9</t>
+  </si>
+  <si>
+    <t>6ace7d004b4cc88bd447b4c32efdb739fc247ab54102baba34cfa8e66471f467</t>
+  </si>
+  <si>
+    <t>1916c0ca81c213ae724fee5d77e70b1e1b0192ef3b6c7a0d0072b1b34e8c88ab</t>
+  </si>
+  <si>
+    <t>152f036099d39e19d70c98b093dbfc74dcc55dad786e9eb8f73edd56ea8e17b8</t>
+  </si>
+  <si>
+    <t>bfddf160d1eca9c8184866e7334470093d70e868abc912e68ccc952f6370c19c</t>
+  </si>
+  <si>
+    <t>16fd2527a1e8e4d992361459cdb4da8bd503f1318d264d0158d210252b4a4705</t>
+  </si>
+  <si>
+    <t>d4778375c189e02d927c181f4edf2b269ebd05848845a23c71f90b6abbf14971</t>
+  </si>
+  <si>
+    <t>3935bb798392636b03918c52fa2c053ea937d01f6060851062409b015dac926f</t>
+  </si>
+  <si>
+    <t>d066ebcdd3a75c5ad1bb1c6c6773b058e3a77088eeaee8e17e801bb43431f2ce</t>
+  </si>
+  <si>
+    <t>050384d352906782f4c24e4ba3cc05d02f98f0dae3e8e021682de108ca8f45e3</t>
+  </si>
+  <si>
+    <t>10743dfb41ec48f72d4e713920d5ad4351578d0deff34eee5e9bb76d0cd584e5</t>
+  </si>
+  <si>
+    <t>34c145d24b7e0340b69eb1515c1efb282e995e9fa1f8f103076fcee676191e80</t>
+  </si>
+  <si>
+    <t>c618c4a569804bd4586df417288adafb2f486b723a24214196b6a18899791e5b</t>
+  </si>
+  <si>
+    <t>3a3df16f3dcff05350511460693ab7e056bbde2b9da230f2f1bf416e9bc9f86a</t>
+  </si>
+  <si>
+    <t>7c1b8d3585f5fa450f84592d03b17d2e2cf50d337e06188762fbb828d16286c8</t>
+  </si>
+  <si>
+    <t>3687c44163abc35673ac648bc42b257d51dd21bf60fae8e143edfdb124a0b78d</t>
+  </si>
+  <si>
+    <t>622ad51c37842193dbaf6a05d10529ed5a0b9356eb32f8b68044fd6d1031b43a</t>
+  </si>
+  <si>
+    <t>54b166377c8b2cd57d46ceabb74ebacb4a9a171d295da772f861082f5b8637ce</t>
+  </si>
+  <si>
+    <t>72ba183b8bb5882107340f216219e554f515a45fc011a799df3395eae28aee7e</t>
+  </si>
+  <si>
+    <t>d832fbb3ebf69241621fe492487113349e658e634bbb043055f85042cec9916c</t>
+  </si>
+  <si>
+    <t>15760113da5404156b3c22289cdb98f958af4c9f7f7467495ab303915fad0ed6</t>
+  </si>
+  <si>
+    <t>fef0cd23e3aef6413a648405e5a28c52971553653a4d13eb0652d20c2eabc056</t>
+  </si>
+  <si>
+    <t>2a66d3ef793712532dedc4530fa12172f7152a73eab2334606da0472ca7ead3b</t>
+  </si>
+  <si>
+    <t>99393dcdedd685a29f3423e71c32587f5ff68351a4e37ff05328d6a495ba2caf</t>
+  </si>
+  <si>
+    <t>82838428dad394fe3a36b1bca0ccf90a8d685a4bed630cfaa190b2ea84437755</t>
+  </si>
+  <si>
+    <t>2dd84ced7ffb0e1b5310aff34d74fffe1738f62b4c98e60995a33f4181d29169</t>
+  </si>
+  <si>
+    <t>5c0a5add9ebdec0033b50f50fab5394868976b096d50e3facd921773ddc51c47</t>
+  </si>
+  <si>
+    <t>7cfad4f3b440a101570725d00b36dc0f95fedfdb0c6ea92816b37adf5163478a</t>
+  </si>
+  <si>
+    <t>49288ce49679cad3bb3bd9c373307fd1034e3d879951b754577dbf5f29241054</t>
+  </si>
+  <si>
+    <t>3835046c31c76624c44ef928b6180e43a4359a21dad2cd396c20714ae092d595</t>
+  </si>
+  <si>
+    <t>77a47647064493dd6e7e11ee7be7e2cd5641caa5130cde01ba223263e1f0da76</t>
+  </si>
+  <si>
+    <t>11ab6e1fbe137dbd2762e30c0f363747079d232c2013d10512694b6b871849d8</t>
+  </si>
+  <si>
+    <t>0ecfe9839a933836028e31ac1151ab4d3c67ffdd22762547e9d1be74669588fd</t>
+  </si>
+  <si>
+    <t>e930e7a83ca31bf2293b5e8c997107f7e100092f267488b49a238c701aebc58c</t>
+  </si>
+  <si>
+    <t>8fb2b11e6bd2d8b8b887e1a58366b58a67cf6f5894f6c5c5f5f0688e8c5f59f2</t>
+  </si>
+  <si>
+    <t>ef074bd5a2456df0cf7b47657b00a6e2bf6ff462b95a1cb88e67f49f16ba7dc1</t>
+  </si>
+  <si>
+    <t>568676325b4e3de0b29c9c8719582ff8eb38623d572fd12c2e15a6a59d1f0e28</t>
+  </si>
+  <si>
+    <t>53ccae13178f472acb5755ec0b467762c5b92871d084b23436f9330006d4c895</t>
+  </si>
+  <si>
+    <t>d913db09e6c6b8d09763f0cab40f3b00945cea2b156f8d4b8c6f70c5646a4396</t>
+  </si>
+  <si>
+    <t>6127a43365beb5569c2299d97ea75ee324bfb6fac0dc3327e996a917f97501b8</t>
+  </si>
+  <si>
+    <t>42f03e627dd086d9405addf94b0ac3b8add3b3dacce30c4716dfbcfc8140cadc</t>
   </si>
 </sst>
 </file>
@@ -671,7 +671,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -687,6 +687,9 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1063,14 +1066,14 @@
   <dimension ref="A1:L48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O8" sqref="O8"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13.77734375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.77734375" customWidth="1"/>
-    <col min="3" max="3" width="19.77734375" customWidth="1"/>
+    <col min="3" max="3" width="65.77734375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.5546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.33203125" bestFit="1" customWidth="1"/>
@@ -1084,40 +1087,40 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>189</v>
+        <v>142</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>188</v>
+        <v>141</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>190</v>
+        <v>143</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>191</v>
+        <v>144</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>192</v>
+        <v>145</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>193</v>
+        <v>146</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>198</v>
+        <v>151</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>194</v>
+        <v>147</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>195</v>
+        <v>148</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>196</v>
+        <v>149</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>197</v>
+        <v>150</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>199</v>
+        <v>152</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
@@ -1128,7 +1131,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>64</v>
+        <v>153</v>
       </c>
       <c r="D2" s="5">
         <v>43809</v>
@@ -1148,22 +1151,22 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>111</v>
+        <v>64</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>65</v>
+        <v>154</v>
       </c>
       <c r="D3" s="5">
         <v>43832</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>113</v>
+        <v>66</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>172</v>
+        <v>125</v>
       </c>
       <c r="G3" s="3">
         <v>25</v>
@@ -1172,13 +1175,13 @@
         <v>32</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>164</v>
+        <v>117</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>166</v>
+        <v>119</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>181</v>
+        <v>134</v>
       </c>
       <c r="L3" s="3">
         <v>5</v>
@@ -1186,22 +1189,22 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>112</v>
+        <v>65</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>66</v>
+        <v>155</v>
       </c>
       <c r="D4" s="5">
         <v>43826</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>114</v>
+        <v>67</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>137</v>
+        <v>90</v>
       </c>
       <c r="G4" s="3">
         <v>32</v>
@@ -1213,7 +1216,7 @@
         <v>3</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>165</v>
+        <v>118</v>
       </c>
       <c r="K4" s="3"/>
       <c r="L4" s="3">
@@ -1222,13 +1225,13 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>111</v>
+        <v>64</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>67</v>
+        <v>156</v>
       </c>
       <c r="D5" s="5">
         <v>43835</v>
@@ -1240,13 +1243,13 @@
       </c>
       <c r="H5" s="2"/>
       <c r="I5" s="3" t="s">
-        <v>164</v>
+        <v>117</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>167</v>
+        <v>120</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>183</v>
+        <v>136</v>
       </c>
       <c r="L5" s="3">
         <v>3</v>
@@ -1254,26 +1257,26 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>111</v>
+        <v>64</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>68</v>
+      <c r="C6" s="6" t="s">
+        <v>157</v>
       </c>
       <c r="D6" s="5">
         <v>43839</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>115</v>
+        <v>68</v>
       </c>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
       <c r="H6" s="2"/>
       <c r="I6" s="3"/>
       <c r="J6" s="3" t="s">
-        <v>169</v>
+        <v>122</v>
       </c>
       <c r="K6" s="3"/>
       <c r="L6" s="3">
@@ -1282,13 +1285,13 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>111</v>
+        <v>64</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>8</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>69</v>
+        <v>158</v>
       </c>
       <c r="D7" s="5">
         <v>43845</v>
@@ -1306,7 +1309,7 @@
       </c>
       <c r="J7" s="3"/>
       <c r="K7" s="3" t="s">
-        <v>185</v>
+        <v>138</v>
       </c>
       <c r="L7" s="3">
         <v>2</v>
@@ -1314,19 +1317,19 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>111</v>
+        <v>64</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>70</v>
+        <v>159</v>
       </c>
       <c r="D8" s="5">
         <v>43849</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>116</v>
+        <v>69</v>
       </c>
       <c r="F8" s="3"/>
       <c r="G8" s="3">
@@ -1335,10 +1338,10 @@
       <c r="H8" s="2"/>
       <c r="I8" s="3"/>
       <c r="J8" s="3" t="s">
-        <v>170</v>
+        <v>123</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>182</v>
+        <v>135</v>
       </c>
       <c r="L8" s="3">
         <v>3</v>
@@ -1346,22 +1349,22 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>111</v>
+        <v>64</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>71</v>
+        <v>160</v>
       </c>
       <c r="D9" s="5">
         <v>43856</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>117</v>
+        <v>70</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>138</v>
+        <v>91</v>
       </c>
       <c r="G9" s="3"/>
       <c r="H9" s="2" t="s">
@@ -1378,13 +1381,13 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>111</v>
+        <v>64</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>11</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>72</v>
+        <v>161</v>
       </c>
       <c r="D10" s="5">
         <v>43860</v>
@@ -1397,10 +1400,10 @@
         <v>3</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>165</v>
+        <v>118</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>180</v>
+        <v>133</v>
       </c>
       <c r="L10" s="3">
         <v>4</v>
@@ -1408,22 +1411,22 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>111</v>
+        <v>64</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>12</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>73</v>
+        <v>162</v>
       </c>
       <c r="D11" s="5">
         <v>43863</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>118</v>
+        <v>71</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>139</v>
+        <v>92</v>
       </c>
       <c r="G11" s="3">
         <v>36</v>
@@ -1440,19 +1443,19 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>111</v>
+        <v>64</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>74</v>
+        <v>163</v>
       </c>
       <c r="D12" s="5">
         <v>43863</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>119</v>
+        <v>72</v>
       </c>
       <c r="F12" s="3"/>
       <c r="G12" s="3">
@@ -1461,10 +1464,10 @@
       <c r="H12" s="2"/>
       <c r="I12" s="3"/>
       <c r="J12" s="3" t="s">
-        <v>166</v>
+        <v>119</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>185</v>
+        <v>138</v>
       </c>
       <c r="L12" s="3">
         <v>1</v>
@@ -1472,13 +1475,13 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>111</v>
+        <v>64</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>14</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>75</v>
+        <v>164</v>
       </c>
       <c r="D13" s="5">
         <v>43869</v>
@@ -1495,10 +1498,10 @@
         <v>3</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>165</v>
+        <v>118</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>181</v>
+        <v>134</v>
       </c>
       <c r="L13" s="3">
         <v>5</v>
@@ -1506,13 +1509,13 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>111</v>
+        <v>64</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>15</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>76</v>
+        <v>165</v>
       </c>
       <c r="D14" s="5">
         <v>43872</v>
@@ -1524,13 +1527,13 @@
       </c>
       <c r="H14" s="2"/>
       <c r="I14" s="3" t="s">
-        <v>164</v>
+        <v>117</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>171</v>
+        <v>124</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>187</v>
+        <v>140</v>
       </c>
       <c r="L14" s="3">
         <v>0</v>
@@ -1538,22 +1541,22 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
-        <v>111</v>
+        <v>64</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>16</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>77</v>
+        <v>166</v>
       </c>
       <c r="D15" s="5">
         <v>43876</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>120</v>
+        <v>73</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>140</v>
+        <v>93</v>
       </c>
       <c r="G15" s="3">
         <v>24</v>
@@ -1561,7 +1564,7 @@
       <c r="H15" s="2"/>
       <c r="I15" s="3"/>
       <c r="J15" s="3" t="s">
-        <v>173</v>
+        <v>126</v>
       </c>
       <c r="K15" s="3"/>
       <c r="L15" s="3">
@@ -1570,19 +1573,19 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
-        <v>111</v>
+        <v>64</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>17</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>78</v>
+        <v>167</v>
       </c>
       <c r="D16" s="5">
         <v>43878</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>121</v>
+        <v>74</v>
       </c>
       <c r="F16" s="3"/>
       <c r="G16" s="3">
@@ -1593,10 +1596,10 @@
         <v>3</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>179</v>
+        <v>132</v>
       </c>
       <c r="K16" s="3" t="s">
-        <v>185</v>
+        <v>138</v>
       </c>
       <c r="L16" s="3">
         <v>3</v>
@@ -1604,13 +1607,13 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
-        <v>111</v>
+        <v>64</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>18</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>79</v>
+        <v>168</v>
       </c>
       <c r="D17" s="5">
         <v>43879</v>
@@ -1619,7 +1622,7 @@
         <v>18</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>141</v>
+        <v>94</v>
       </c>
       <c r="G17" s="3"/>
       <c r="H17" s="2" t="s">
@@ -1630,7 +1633,7 @@
       </c>
       <c r="J17" s="3"/>
       <c r="K17" s="3" t="s">
-        <v>181</v>
+        <v>134</v>
       </c>
       <c r="L17" s="3">
         <v>0</v>
@@ -1638,13 +1641,13 @@
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
-        <v>111</v>
+        <v>64</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>19</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>80</v>
+        <v>169</v>
       </c>
       <c r="D18" s="5">
         <v>43881</v>
@@ -1655,7 +1658,7 @@
       <c r="H18" s="2"/>
       <c r="I18" s="3"/>
       <c r="J18" s="3" t="s">
-        <v>174</v>
+        <v>127</v>
       </c>
       <c r="K18" s="3"/>
       <c r="L18" s="3">
@@ -1664,22 +1667,22 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
-        <v>111</v>
+        <v>64</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>20</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>81</v>
+        <v>170</v>
       </c>
       <c r="D19" s="5">
         <v>43883</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>122</v>
+        <v>75</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>142</v>
+        <v>95</v>
       </c>
       <c r="G19" s="3">
         <v>25</v>
@@ -1687,10 +1690,10 @@
       <c r="H19" s="2"/>
       <c r="I19" s="3"/>
       <c r="J19" s="3" t="s">
-        <v>175</v>
+        <v>128</v>
       </c>
       <c r="K19" s="3" t="s">
-        <v>187</v>
+        <v>140</v>
       </c>
       <c r="L19" s="3">
         <v>1</v>
@@ -1698,22 +1701,22 @@
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
-        <v>112</v>
+        <v>65</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>21</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>82</v>
+        <v>171</v>
       </c>
       <c r="D20" s="5">
         <v>43883</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>123</v>
+        <v>76</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>149</v>
+        <v>102</v>
       </c>
       <c r="G20" s="3">
         <v>42</v>
@@ -1732,13 +1735,13 @@
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
-        <v>111</v>
+        <v>64</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>22</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>83</v>
+        <v>172</v>
       </c>
       <c r="D21" s="5">
         <v>43888</v>
@@ -1751,10 +1754,10 @@
       <c r="H21" s="2"/>
       <c r="I21" s="3"/>
       <c r="J21" s="3" t="s">
-        <v>176</v>
+        <v>129</v>
       </c>
       <c r="K21" s="3" t="s">
-        <v>181</v>
+        <v>134</v>
       </c>
       <c r="L21" s="3">
         <v>5</v>
@@ -1762,22 +1765,22 @@
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
-        <v>111</v>
+        <v>64</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>23</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>84</v>
+        <v>173</v>
       </c>
       <c r="D22" s="5">
         <v>43890</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>124</v>
+        <v>77</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>150</v>
+        <v>103</v>
       </c>
       <c r="G22" s="3"/>
       <c r="H22" s="2" t="s">
@@ -1787,7 +1790,7 @@
         <v>3</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>168</v>
+        <v>121</v>
       </c>
       <c r="K22" s="3"/>
       <c r="L22" s="3">
@@ -1796,19 +1799,19 @@
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
-        <v>111</v>
+        <v>64</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>24</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>85</v>
+        <v>174</v>
       </c>
       <c r="D23" s="5">
         <v>43891</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>124</v>
+        <v>77</v>
       </c>
       <c r="F23" s="3"/>
       <c r="G23" s="3">
@@ -1817,10 +1820,10 @@
       <c r="H23" s="2"/>
       <c r="I23" s="3"/>
       <c r="J23" s="3" t="s">
-        <v>165</v>
+        <v>118</v>
       </c>
       <c r="K23" s="3" t="s">
-        <v>180</v>
+        <v>133</v>
       </c>
       <c r="L23" s="3">
         <v>1</v>
@@ -1828,22 +1831,22 @@
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
-        <v>112</v>
+        <v>65</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>25</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>86</v>
+        <v>175</v>
       </c>
       <c r="D24" s="5">
         <v>43894</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>125</v>
+        <v>78</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>151</v>
+        <v>104</v>
       </c>
       <c r="G24" s="3">
         <v>46</v>
@@ -1852,10 +1855,10 @@
         <v>41</v>
       </c>
       <c r="I24" s="3" t="s">
-        <v>164</v>
+        <v>117</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>177</v>
+        <v>130</v>
       </c>
       <c r="K24" s="3"/>
       <c r="L24" s="3">
@@ -1864,19 +1867,19 @@
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
-        <v>111</v>
+        <v>64</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>26</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>87</v>
+        <v>176</v>
       </c>
       <c r="D25" s="5">
         <v>43897</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>126</v>
+        <v>79</v>
       </c>
       <c r="F25" s="3"/>
       <c r="G25" s="3">
@@ -1886,11 +1889,11 @@
         <v>42</v>
       </c>
       <c r="I25" s="3" t="s">
-        <v>164</v>
+        <v>117</v>
       </c>
       <c r="J25" s="3"/>
       <c r="K25" s="3" t="s">
-        <v>187</v>
+        <v>140</v>
       </c>
       <c r="L25" s="3">
         <v>4</v>
@@ -1898,13 +1901,13 @@
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
-        <v>111</v>
+        <v>64</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>27</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>88</v>
+        <v>177</v>
       </c>
       <c r="D26" s="5">
         <v>43901</v>
@@ -1917,10 +1920,10 @@
       <c r="H26" s="2"/>
       <c r="I26" s="3"/>
       <c r="J26" s="3" t="s">
-        <v>178</v>
+        <v>131</v>
       </c>
       <c r="K26" s="3" t="s">
-        <v>186</v>
+        <v>139</v>
       </c>
       <c r="L26" s="3">
         <v>6</v>
@@ -1928,22 +1931,22 @@
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
-        <v>111</v>
+        <v>64</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>28</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>89</v>
+        <v>178</v>
       </c>
       <c r="D27" s="5">
         <v>43901</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>127</v>
+        <v>80</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>143</v>
+        <v>96</v>
       </c>
       <c r="G27" s="3"/>
       <c r="H27" s="2" t="s">
@@ -1954,7 +1957,7 @@
       </c>
       <c r="J27" s="3"/>
       <c r="K27" s="3" t="s">
-        <v>185</v>
+        <v>138</v>
       </c>
       <c r="L27" s="3">
         <v>2</v>
@@ -1962,13 +1965,13 @@
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
-        <v>111</v>
+        <v>64</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>29</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>90</v>
+        <v>179</v>
       </c>
       <c r="D28" s="5">
         <v>43902</v>
@@ -1980,10 +1983,10 @@
       </c>
       <c r="H28" s="2"/>
       <c r="I28" s="3" t="s">
-        <v>164</v>
+        <v>117</v>
       </c>
       <c r="J28" s="3" t="s">
-        <v>166</v>
+        <v>119</v>
       </c>
       <c r="K28" s="3"/>
       <c r="L28" s="3">
@@ -1992,19 +1995,19 @@
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
-        <v>111</v>
+        <v>64</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>30</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>91</v>
+        <v>180</v>
       </c>
       <c r="D29" s="5">
         <v>43905</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>128</v>
+        <v>81</v>
       </c>
       <c r="F29" s="3"/>
       <c r="G29" s="3">
@@ -2013,10 +2016,10 @@
       <c r="H29" s="2"/>
       <c r="I29" s="3"/>
       <c r="J29" s="3" t="s">
-        <v>165</v>
+        <v>118</v>
       </c>
       <c r="K29" s="3" t="s">
-        <v>185</v>
+        <v>138</v>
       </c>
       <c r="L29" s="3">
         <v>8</v>
@@ -2024,22 +2027,22 @@
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
-        <v>111</v>
+        <v>64</v>
       </c>
       <c r="B30" s="4" t="s">
         <v>31</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>92</v>
+        <v>181</v>
       </c>
       <c r="D30" s="5">
         <v>43907</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>129</v>
+        <v>82</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>144</v>
+        <v>97</v>
       </c>
       <c r="G30" s="3"/>
       <c r="H30" s="2" t="s">
@@ -2048,7 +2051,7 @@
       <c r="I30" s="3"/>
       <c r="J30" s="3"/>
       <c r="K30" s="3" t="s">
-        <v>184</v>
+        <v>137</v>
       </c>
       <c r="L30" s="3">
         <v>0</v>
@@ -2056,13 +2059,13 @@
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
-        <v>111</v>
+        <v>64</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>47</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>93</v>
+        <v>182</v>
       </c>
       <c r="D31" s="5">
         <v>43911</v>
@@ -2076,13 +2079,13 @@
         <v>45</v>
       </c>
       <c r="I31" s="3" t="s">
-        <v>164</v>
+        <v>117</v>
       </c>
       <c r="J31" s="3" t="s">
-        <v>166</v>
+        <v>119</v>
       </c>
       <c r="K31" s="3" t="s">
-        <v>186</v>
+        <v>139</v>
       </c>
       <c r="L31" s="3">
         <v>4</v>
@@ -2090,28 +2093,28 @@
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
-        <v>111</v>
+        <v>64</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>48</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>94</v>
+        <v>183</v>
       </c>
       <c r="D32" s="5">
         <v>43912</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>130</v>
+        <v>83</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>145</v>
+        <v>98</v>
       </c>
       <c r="G32" s="3">
         <v>32</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>152</v>
+        <v>105</v>
       </c>
       <c r="I32" s="3" t="s">
         <v>3</v>
@@ -2124,19 +2127,19 @@
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
-        <v>111</v>
+        <v>64</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>49</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>95</v>
+        <v>184</v>
       </c>
       <c r="D33" s="5">
         <v>43914</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>130</v>
+        <v>83</v>
       </c>
       <c r="F33" s="3"/>
       <c r="G33" s="3">
@@ -2147,7 +2150,7 @@
         <v>3</v>
       </c>
       <c r="J33" s="3" t="s">
-        <v>168</v>
+        <v>121</v>
       </c>
       <c r="K33" s="3"/>
       <c r="L33" s="3">
@@ -2156,33 +2159,33 @@
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
-        <v>111</v>
+        <v>64</v>
       </c>
       <c r="B34" s="4" t="s">
         <v>50</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>96</v>
+        <v>185</v>
       </c>
       <c r="D34" s="5">
         <v>43915</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>131</v>
+        <v>84</v>
       </c>
       <c r="F34" s="3"/>
       <c r="G34" s="3">
         <v>36</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>153</v>
+        <v>106</v>
       </c>
       <c r="I34" s="3"/>
       <c r="J34" s="3" t="s">
-        <v>165</v>
+        <v>118</v>
       </c>
       <c r="K34" s="3" t="s">
-        <v>180</v>
+        <v>133</v>
       </c>
       <c r="L34" s="3">
         <v>1</v>
@@ -2190,13 +2193,13 @@
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
-        <v>111</v>
+        <v>64</v>
       </c>
       <c r="B35" s="4" t="s">
         <v>51</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>97</v>
+        <v>186</v>
       </c>
       <c r="D35" s="5">
         <v>43918</v>
@@ -2205,14 +2208,14 @@
       <c r="F35" s="3"/>
       <c r="G35" s="3"/>
       <c r="H35" s="2" t="s">
-        <v>154</v>
+        <v>107</v>
       </c>
       <c r="I35" s="3" t="s">
         <v>3</v>
       </c>
       <c r="J35" s="3"/>
       <c r="K35" s="3" t="s">
-        <v>182</v>
+        <v>135</v>
       </c>
       <c r="L35" s="3">
         <v>0</v>
@@ -2220,13 +2223,13 @@
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
-        <v>111</v>
+        <v>64</v>
       </c>
       <c r="B36" s="4" t="s">
         <v>52</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>98</v>
+        <v>187</v>
       </c>
       <c r="D36" s="5">
         <v>43920</v>
@@ -2237,11 +2240,11 @@
         <v>21</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>155</v>
+        <v>108</v>
       </c>
       <c r="I36" s="3"/>
       <c r="J36" s="3" t="s">
-        <v>168</v>
+        <v>121</v>
       </c>
       <c r="K36" s="3"/>
       <c r="L36" s="3">
@@ -2250,31 +2253,31 @@
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
-        <v>111</v>
+        <v>64</v>
       </c>
       <c r="B37" s="4" t="s">
         <v>53</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>99</v>
+        <v>188</v>
       </c>
       <c r="D37" s="5">
         <v>43922</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>132</v>
+        <v>85</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>146</v>
+        <v>99</v>
       </c>
       <c r="G37" s="3"/>
       <c r="H37" s="2" t="s">
-        <v>156</v>
+        <v>109</v>
       </c>
       <c r="I37" s="3"/>
       <c r="J37" s="3"/>
       <c r="K37" s="3" t="s">
-        <v>186</v>
+        <v>139</v>
       </c>
       <c r="L37" s="3">
         <v>2</v>
@@ -2282,13 +2285,13 @@
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
-        <v>111</v>
+        <v>64</v>
       </c>
       <c r="B38" s="4" t="s">
         <v>54</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>100</v>
+        <v>189</v>
       </c>
       <c r="D38" s="5">
         <v>43924</v>
@@ -2300,10 +2303,10 @@
       </c>
       <c r="H38" s="2"/>
       <c r="I38" s="3" t="s">
-        <v>164</v>
+        <v>117</v>
       </c>
       <c r="J38" s="3" t="s">
-        <v>165</v>
+        <v>118</v>
       </c>
       <c r="K38" s="3"/>
       <c r="L38" s="3">
@@ -2312,31 +2315,31 @@
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
-        <v>111</v>
+        <v>64</v>
       </c>
       <c r="B39" s="4" t="s">
         <v>55</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>101</v>
+        <v>190</v>
       </c>
       <c r="D39" s="5">
         <v>43926</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>133</v>
+        <v>86</v>
       </c>
       <c r="F39" s="3"/>
       <c r="G39" s="3"/>
       <c r="H39" s="2" t="s">
-        <v>157</v>
+        <v>110</v>
       </c>
       <c r="I39" s="3"/>
       <c r="J39" s="3" t="s">
-        <v>168</v>
+        <v>121</v>
       </c>
       <c r="K39" s="3" t="s">
-        <v>184</v>
+        <v>137</v>
       </c>
       <c r="L39" s="3">
         <v>1</v>
@@ -2344,34 +2347,34 @@
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
-        <v>112</v>
+        <v>65</v>
       </c>
       <c r="B40" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>102</v>
+        <v>191</v>
       </c>
       <c r="D40" s="5">
         <v>43928</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>117</v>
+        <v>70</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>147</v>
+        <v>100</v>
       </c>
       <c r="G40" s="3">
         <v>28</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>158</v>
+        <v>111</v>
       </c>
       <c r="I40" s="3" t="s">
         <v>3</v>
       </c>
       <c r="J40" s="3" t="s">
-        <v>165</v>
+        <v>118</v>
       </c>
       <c r="K40" s="3"/>
       <c r="L40" s="3">
@@ -2380,19 +2383,19 @@
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
-        <v>111</v>
+        <v>64</v>
       </c>
       <c r="B41" s="4" t="s">
         <v>57</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>103</v>
+        <v>192</v>
       </c>
       <c r="D41" s="5">
         <v>43928</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>134</v>
+        <v>87</v>
       </c>
       <c r="F41" s="3"/>
       <c r="G41" s="3">
@@ -2404,7 +2407,7 @@
       </c>
       <c r="J41" s="3"/>
       <c r="K41" s="3" t="s">
-        <v>181</v>
+        <v>134</v>
       </c>
       <c r="L41" s="3">
         <v>6</v>
@@ -2412,13 +2415,13 @@
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
-        <v>111</v>
+        <v>64</v>
       </c>
       <c r="B42" s="4" t="s">
         <v>58</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>104</v>
+        <v>193</v>
       </c>
       <c r="D42" s="5">
         <v>43929</v>
@@ -2429,13 +2432,13 @@
         <v>18</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>159</v>
+        <v>112</v>
       </c>
       <c r="I42" s="3" t="s">
-        <v>164</v>
+        <v>117</v>
       </c>
       <c r="J42" s="3" t="s">
-        <v>167</v>
+        <v>120</v>
       </c>
       <c r="K42" s="3"/>
       <c r="L42" s="3">
@@ -2444,13 +2447,13 @@
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
-        <v>111</v>
+        <v>64</v>
       </c>
       <c r="B43" s="4" t="s">
         <v>59</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>105</v>
+        <v>194</v>
       </c>
       <c r="D43" s="5">
         <v>43931</v>
@@ -2459,16 +2462,16 @@
         <v>59</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>148</v>
+        <v>101</v>
       </c>
       <c r="G43" s="3"/>
       <c r="H43" s="2" t="s">
-        <v>160</v>
+        <v>113</v>
       </c>
       <c r="I43" s="3"/>
       <c r="J43" s="3"/>
       <c r="K43" s="3" t="s">
-        <v>180</v>
+        <v>133</v>
       </c>
       <c r="L43" s="3">
         <v>4</v>
@@ -2476,13 +2479,13 @@
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
-        <v>111</v>
+        <v>64</v>
       </c>
       <c r="B44" s="4" t="s">
         <v>60</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>106</v>
+        <v>195</v>
       </c>
       <c r="D44" s="5">
         <v>43933</v>
@@ -2495,7 +2498,7 @@
       <c r="H44" s="2"/>
       <c r="I44" s="3"/>
       <c r="J44" s="3" t="s">
-        <v>173</v>
+        <v>126</v>
       </c>
       <c r="K44" s="3"/>
       <c r="L44" s="3">
@@ -2504,35 +2507,35 @@
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A45" s="3" t="s">
-        <v>111</v>
+        <v>64</v>
       </c>
       <c r="B45" s="4" t="s">
         <v>61</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>107</v>
+        <v>196</v>
       </c>
       <c r="D45" s="5">
         <v>43934</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>135</v>
+        <v>88</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>142</v>
+        <v>95</v>
       </c>
       <c r="G45" s="3">
         <v>27</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>161</v>
+        <v>114</v>
       </c>
       <c r="I45" s="3" t="s">
-        <v>164</v>
+        <v>117</v>
       </c>
       <c r="J45" s="3"/>
       <c r="K45" s="3" t="s">
-        <v>185</v>
+        <v>138</v>
       </c>
       <c r="L45" s="3">
         <v>2</v>
@@ -2540,19 +2543,19 @@
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
-        <v>111</v>
+        <v>64</v>
       </c>
       <c r="B46" s="4" t="s">
         <v>62</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>108</v>
+        <v>197</v>
       </c>
       <c r="D46" s="5">
         <v>43935</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>136</v>
+        <v>89</v>
       </c>
       <c r="F46" s="3"/>
       <c r="G46" s="3">
@@ -2560,13 +2563,13 @@
       </c>
       <c r="H46" s="2"/>
       <c r="I46" s="3" t="s">
-        <v>164</v>
+        <v>117</v>
       </c>
       <c r="J46" s="3" t="s">
-        <v>166</v>
+        <v>119</v>
       </c>
       <c r="K46" s="3" t="s">
-        <v>181</v>
+        <v>134</v>
       </c>
       <c r="L46" s="3">
         <v>2</v>
@@ -2574,13 +2577,13 @@
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A47" s="3" t="s">
-        <v>111</v>
+        <v>64</v>
       </c>
       <c r="B47" s="4" t="s">
         <v>63</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>109</v>
+        <v>198</v>
       </c>
       <c r="D47" s="5">
         <v>43935</v>
@@ -2589,7 +2592,7 @@
       <c r="F47" s="3"/>
       <c r="G47" s="3"/>
       <c r="H47" s="2" t="s">
-        <v>162</v>
+        <v>115</v>
       </c>
       <c r="I47" s="3" t="s">
         <v>3</v>
@@ -2602,13 +2605,13 @@
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A48" s="3" t="s">
-        <v>111</v>
+        <v>64</v>
       </c>
       <c r="B48" s="4" t="s">
         <v>46</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>110</v>
+        <v>199</v>
       </c>
       <c r="D48" s="5">
         <v>43936</v>
@@ -2619,16 +2622,16 @@
         <v>47</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>163</v>
+        <v>116</v>
       </c>
       <c r="I48" s="3" t="s">
         <v>3</v>
       </c>
       <c r="J48" s="3" t="s">
-        <v>168</v>
+        <v>121</v>
       </c>
       <c r="K48" s="3" t="s">
-        <v>186</v>
+        <v>139</v>
       </c>
       <c r="L48" s="3">
         <v>1</v>
